--- a/biology/Botanique/Liste_des_lignées_de_cannabis/Liste_des_lignées_de_cannabis.xlsx
+++ b/biology/Botanique/Liste_des_lignées_de_cannabis/Liste_des_lignées_de_cannabis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_lign%C3%A9es_de_cannabis</t>
+          <t>Liste_des_lignées_de_cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette liste des lignée notables de cannabis est organisée selon la pureté ou l'hybridation des lignées Cannabis sativa et Cannabis indica.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_lign%C3%A9es_de_cannabis</t>
+          <t>Liste_des_lignées_de_cannabis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variétés améliorées
+          <t>Variétés améliorées</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Afghani #1 (Sensi Seeds)
 Alaskan Matanuska Thunderfuck
 Ata Tundra(seedsman)
@@ -557,7 +575,43 @@
 White rose (hqs)
 White Widow (Brazilian × South Indian)
 Ya Mami Pwns
-Variétés naturelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Indica</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés naturelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Afghan
 Arabe
 Chinois (Golden Triangle Akha)
@@ -573,221 +627,226 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_lign%C3%A9es_de_cannabis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Ruderalis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Variétés améliorées
-Le cannabis ruderalis est essentiellement utilisé pour réaliser des hybrides à floraison automatique
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés améliorées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le cannabis ruderalis est essentiellement utilisé pour réaliser des hybrides à floraison automatique
 Le mot "Auto" a plusieurs synonymes "auto floraison" "auto fleurissante" "automatique", en anglais : "autoflower" "autoflowering" "automatic" en espagnol "autofloreciente"
-+Speed "Auto" (Sweet Seeds[1]) [ Crital Mass "Auto" x  phénotype Speed Devil #2 "Auto" ]
-"Auto" #1 (Auto Seeds[2])
-"Auto" 00 Cheese (00 Seeds Bank[3]) [ Cheese x Ruderalis ]
-"Auto" 00 Kush (00 Seeds Bank[3]) [ OG Kush x Ruderalis ]
-2 Fast &amp; 2 Vast "Auto" (Heavyweight Seeds[4]) [ Fast &amp; Vast Auto x "Auto" Northern Lights ]
-"Auto" 4:20 (Biohazard Seeds[5]) [ Deimos "Auto" x Mazar ]
-60 Day Lemon "Auto" (DNA Genetics[6]) [ Lemon Skunk x Ruderalis ]
-60 Day Wonder "Auto" (DNA Genetics[6]) [ Williams Wonder x Ruderalis ]
-"Auto" 710 Cheese (710 Genetics[7]) [ UK Skunk x Afghani ]
-"Auto" 710 Diesel (710 Genetics[7]) [ 701 Diesel x Ruderalis ]
-Afghani #1 "Auto" (Sensi Seeds Bank[8])
-"Auto" Afghan Mass (00 Seeds Bank[3]) [ Critical Mass "Auto" x Génétiques Afghanes ]
-"Auto" Afghan Mass XXL (00 Seeds Bank[3]) [ Sélection d'Auto Afghan Mass ]
-Afghan Storm "Auto" (Greenbud Seeds[9]) [ Hash Plant x Skunk x Ruderalis ]
-AK-47 "Auto" (Amaranta Seeds[10])
-"Auto" AK 107 (710 Genetics[7]) [ AK-47 x UK Elite Clone ]
-AK-420 "Auto" (Zamnesia Seeds[11]) [ AK-420 x Ruderalis ]
-"Auto" AK (Female Seeds[12]) [ Pure AK x Lowryder ]
-"Auto" AK (Grass-O-Matic[13]) [ AK-47 x Lowryder ]
-"Auto" AK CBD (CBD Seeds[14])
-"Auto" AK Bio (Biological Seeds[15]) [ AK-47 x Ruderalis ]
-AK Skunk "Auto" (Kalashnikov Seeds[16]) [ Ak-Skunk x Ruderalis ]
-Amarant "Auto" (Amaranta Seeds[10])
-Amazing "Auto" (Absolute Cannabis Seeds[17])
-"Auto" Amnesia (Advanced Seeds[18]) [ Original Amnesia x Ruderalis ]
-"Auto" Amnesia CBD (CBD Seeds[14])
-Amnesia Bilbo "Auto" (Genehtik[19]) [ Amnesia Bilbo x Ruderalis ]
-"Auto" Amnesia Haze (Biological Seeds[15])
-Amnesia Haze "Auto" (Expert Seeds[20]) [ Amnesia Haze x Ruderalis ]
-Amnesia Haze "Auto" (Zamnesia Seeds[11]) [ Amnesia Haze x Ruderalis ]
-Amnesia Skunk "Auto" (Zamnesia Seeds[11]) [ Amnesia Haze x Skunk x Ruderalis ]
-Amnesia XXL "Auto" (Dinafem[21]) [ Original Amnesia x Original Amnesia "Auto" ]
-Amur Giant "Auto" (Kalashnikov Seeds[16]) [ Jack Here x Power Plant x Amur Ruderalis ]
-Autoblueberry (Expert Seeds[20]) [ Canadian Ruderalis x Blueberry ]
-Auto-Bomb (Green House Seeds[22]) [ Green-O-Matic x Big Bang "Auto" ]
-Autopilote XXL (Ministry of Cannabis[23]) [big Bud XXL x "Auto" ]
-Babushka Black "Auto" (Kalashnikov Seeds[16]) [ Crimea Ruderalis x Pakistan ]
-Baby Boom "Auto" (Kannabia[24]) [ Northern Lights x Blueberry x Ruderalis ]
-Baby Boom "Auto" CBD (Kannabia[24]) [ Blueberry x Northern Lights x Ruderalis ]
-Beast. (Genofarm[25]) [ AK-47 XXL "Auto" x Thunderhaze XL "Auto" ]
-"Auto Berry (G13 labs[26]) [ Blueberry x Canadian Ruderalis ]
-Berry Bomb "Auto" (Bomb Seeds[27]) [ Blueberry x Ruderalis ]
-Berry Ryder "Auto" (Auto Seeds[2]) [ Blueberry x "Auto" #1 ]
-Big Band Max "Auto" (Kannabia[24])
-Big Bang "Auto" (Green House Seeds[22]) [ Skunk#1 X Northern Light X El Niño X Ruderalis ]
-Big Bomb "Auto" (Bomb Seeds[27]) [ Big Bomb x Ruderalis ]
-Big Bud "Auto" (Sensi Seeds Bank[8])
-Big Buddha Cheese "Auto" (Big Buddha Seeds[28]) [ Original UK Cheese x Afghane ]
-Big Devil "Auto" (Sweet Seeds[1])
-Big Devil #2 "Auto" (Sweet Seeds[1]) [ évolution de la Big Devil "Auto" ]
-Big Devil XL (Sweet Seeds[1]) [ Big Devil #2 x Jack Herer "Auto" ]
-"Auto" Bio Diesel Mass (Advanced Seeds[18]) [ Auto Diesel x "Auto" Critical ]
-"Auto" Bio Lime (Biological Seeds[15]) [ Super Lemon Haze x Ruderalis ]
-Birrie Jack "Auto" (Amaranta Seeds[10])
-BlackBerry "Auto" (Fastbuds[29]) [ BlackBerry Kush x Cream Caramel "Auto" ]
-"Auto" BlackBerry Kush (Dutch Passion[30]) [ Original Blueberry x Haschisch Kush ]
-Black Cream "Auto" (Sweet Seeds[1]) [ Cream Caramel Original x Kush/Pakistanaise ]
-"Auto" Black Diesel (Advanced Seeds[18]) [ NYC Diesel x Black Widow x Ruderalis ]
-"Auto" Black Domina CBD (CBD Seeds[14])
-Black Haze "Auto" (Exotic Seed[31]) [(Sir Jack x Skunk "Auto") F6 x Pakistan Chitral Kush (F5)]
-Black Jack "Auto" (Sweet Seeds[1]) [ Jack Herer x S.A.D. Sweet Afghani Delicious "Auto" ]
-Black Lemon "Auto" (Exotic Seed[31]) [ Black Haze "Auto" x Skunk "Auto" ]
-Blackout Express "Auto" (Greenbud Seeds[9]) [ Thai x Skunk x C99 x Ruderalis ]
-Bloody Skunk "Auto" (Sweet Seeds[1]) [ Sweet Skunk "Auto" x Red Poison "Auto" ]
-Blow Mind "Auto" (Sweet Seeds[1]) [ Clone élite Amnesia Haze "Cordobesa" x S.A.D. Sweet Afgani Delicious "Auto" ]
-"Auto" Blue (Biological Seeds[15]Seeds) [ Blueberry x White Widow x Super Skunk x Ruderalis ]
-"Auto" Blue Ace CBD (Delicious Seeds[32]) [ Diva x Carmen "Auto" ]
-Blue Acid "Auto" (Kalashnikov Seeds[16]) [ AK-47 x Strawberry x Ruderalis ]
-"Auto" Blue Amnesia (Ministry of Cannabis[23]) [ Amnesia x  Blueberry x Ruderalis ]
-Blue Amnesia "Auto" (Amsterdam Genetics[33]) [ Blue Dream x Amnesia ]
-Blue Amnesia XXL "Auto" (Dinafem[21]) [ Original Amnesia "Auto" x Blueberry "Auto" ]
-Blue "Auto" Mazar (Dutch Passion[30]) [ "Auto" Blueberry x "Auto" Mazar ]
-"Auto" Blueberry (00 Seeds Bank[3]) [ Blueberry x "Auto" Indica ]
-"Auto" Blueberry (Dutch Passion[30]) [ Blueberry x Indica "Auto" ]
-Blueberry "Auto" (Zamnesia Seeds[11]) [ Blueberry x Ruderalis ]
-Blue Cheese "Auto" (Barney's Farm[34]) [ Blue Cheese x Ruderalis ]
-Blue Cheese "Auto" (Expert Seeds[20]) [ Blueberry "Auto" x Cheese "Auto" ]
-Blue Cheese "Auto" (Dinafem[21]) [ Cheese "Auto" x Blueberry "Auto" ]
-Blue Critical "Auto" (Dinafem[21]) [ Critical+ "Auto" x Blueberry "Auto" ]
-"Auto" Blue Diesel (Advanced Seeds[18]) [ "Auto" Biodiesel Mass x "Auto" Blueberry ]
-Blue Dream "Auto" (Humbold Seed organization[35]) [ Blue Dream x Ruderalis ]
-Blue Dream'matic (Fastbuds[29]) [ Blue Dream x Ruderalis ]
-Bluehell "Auto" (Medical Seeds[36]) [ Bluehell x "Auto" Medical Ruderalis ]
-Blue Kush "Auto" (Dinafem[21]) [ OG Kush "Auto" x Blueberry "Auto" ]
-Blue Mammoth "Auto" (Barney's Farm[34]) [ Blueberry Skunk x Lowryder #1 ]
-Blue Pearl "Auto" (Fantaseeds[37]) [ Blue Haze x Silver Pearl ]
-"Auto" Bomb (Bomb Seeds[27]) [ "Auto" Bomb#1 x Haze x Ruderalis ]
-"Auto" Brooklyn Sunrise (Dutch Passion[30]) [ Brooklyn x AK de l'état de New York ]
-Bruce Banner #3 "Auto" (Original Sensible Seeds[38]) [(Ghost OG x Strawberry Diesel) x "Auto" Ghost OG ]
-Bubba Cheese "Auto" (Humboldt Seed organization[35]) [ Bubba Kush x UK Cheese x Ruderalis ]
-Bubba Kush "Auto" (Dinafem[21]) [ Bubba Kush Pre’98 x White Widow "Auto" ]
-Bubba Kush "Auto (Humboldt Seed organization[35]) [ Bubba kush Pre'98 x Ruderalis ]
-"Auto" Bubble (Female Seeds[12]) [ Bubblegum x Ruderalis ]
-"Auto" Bubble Gum (00 Seeds Bank[3]) [ Bubble Gum x Ruderalis ]
-Bubblegum "Auto" (Keria Seeds[39])
-Buddha White Dwarf "Auto" (Buddha Seeds[40])
-Budmaker "Auto" (Greenbud Seeds[9]) [ Haze x Shiva Skunk x Northern Lights x Ruderalis ]
-C4 Matic (Fastbuds[29]) [ White Widow x Skunk x Big Bud ]
-Calamity Jane "Auto" (Buddha Seeds[40]) [ Magnum x Génétiques sélectionnées de Brothers Grimm Seeds ]
-"Auto" California Kush (00 Seeds Bank[3]) [ California x Kush Ruderalis ]
-Californian Snow (Fastbuds[29]) [ ancienne variété Californienne x Ruderalis canadienne ]
-Candy Kush "Auto" (Auto Seeds[2]) [ Sélection de Kush californiennes x "Auto" Pounder ]
-Caramel "Auto" (Zamnesia Seeds[11]) [ Sweet Caramel x Ruderalis ]
-Caramella "Auto" (Expert Seeds[20]) [ Cream Caramel "Auto" x Deimos ]
-Caramella "Auto" (Fantaseeds[37]) [ Caramella x Ruderalis ]
-CBD "Auto" Charlotte's Angel (Dutch Passion[30]) [ CBD Charlotte’s Angel x CBD "Auto" Compassion Lime ]
-CBD "Auto" Compassion Lime (Dutch Passion[30]) [ Daiquiri Lime x Compassion ]
-CBD Crack "Auto" (Fastbuds[29]) [ Green Crack x CBD "Auto" ]
-CBD Fix "Auto" (Zamnesia Seeds[11]) [ CBD rich clone x Northern Lights "Auto" ]
-CBD Lemon Portion "Auto" (Barney's Farm[34]) [ (BF) Lemon Kush x ()CBD Crew CBD Enriched x "Auto" ]
-CBD MedGom "Auto" (CBD Crew[41])
-CBD "Auto" White Widow (Dutch Passion[30]) [ "Auto" White Window x CBD Sweet and Sour Window de chez (CBD Crew) ]
-"Auto" CBG (CannaBioGen[42]) [ Destroyer x Ruderalis ]
-Cheese "Auto" (Expert Seeds[20]) [ Chesse x Lowryder ]
-Cheese "Auto" (Dinafem[21]) [ Critical+ x Cheese "Auto" ]
-Cheese Candy "Auto" (Delicious Seeds[32])
-"Auto" Cheese Berry (00 Seeds Bank[3]) [ Cheese x Blueberry x Ruderalis ]
-Cheese XXL "Auto" (Dinafem[21]) [ Clone élite Exodus Cheese x Cheese "Auto" ]
-"Auto" Chemdog (Auto Seeds[2]) [ "Auto" #1 x Chemdog Originale ]
-Cherry Bomb "Auto" (Bomb Seeds[27]) [ Cherry Bomb x Ruderalis ]
-Cherry Bud "Auto" (Zamnesia Seeds[11]) [ Blueberry "Auto" x Cheese "Auto" ]
-"Auto" Chingon (Biohazard Seeds[5]) [ "Auto" Somachigun x "Auto" Deimos ]
-"Auto" Chocolate Skunk (00 Seeds Bank[3]) [ Chocolate Skunk x Ruderalis ]
-Chronic Ryder (Joint Doctor Direct "Lowryder Seeds"[43])
-"Auto" Cinderella Jack (Dutch Passion[30] et Buddha Seeds) [ (Cinderella 99 x Jack Herer) x lignée Magnum ]
-"Auto" Colorado Cookies (Dutch Passion[30]) [ "Auto" Blueberry Original x Girl Scout Cookie du Colorado ]
-Cookies "Auto" (Dinafem[21]) [ Girl Scout Cookies x OG Kush "Auto" ]
-Cookies "Auto" (LaMota Seeds[44]) [ Girl Scout Cookies x Girl Scout Cookies "Auto" ]
-Cotton Bud (Zamnesia Seeds[11]) [ White Indica x Ruderalis ]
-Cotton Kush (Genofarm[25]) [ AK-47 XX1 "Auto" x Kush "Auto" ]
-Cream Caramel "Auto" (Sweet Seeds[1]) [ Cream Caramel x Sélection "Auto" ]
-Cream Cookies "Auto" (Fastbuds[29]) [ Lignée Girl Scout Cookies x Ruderalis ]
-Cream Mandarine "Auto" (Sweet Seeds[1]) [ phénotype Cream Caramel "Auto" x clone élite Ice Cool ]
-Cream Mandarine XL "Auto" (Sweet Seeds[1]) [ Cream Mandarine "Auto" x clone élite Super Tai'98 ]
-"Auto" Critical (Biological Seeds[15]) (Zamnesia Seeds)
-Critical + 2.0 "Auto" (Dinafem[21]) [ Critical/Ruderalis x Critical +]
-Critical + "Auto" (Dinafem[21]) [ Critical+ x Roadrunner "Auto" ]
++Speed "Auto" (Sweet Seeds) [ Crital Mass "Auto" x  phénotype Speed Devil #2 "Auto" ]
+"Auto" #1 (Auto Seeds)
+"Auto" 00 Cheese (00 Seeds Bank) [ Cheese x Ruderalis ]
+"Auto" 00 Kush (00 Seeds Bank) [ OG Kush x Ruderalis ]
+2 Fast &amp; 2 Vast "Auto" (Heavyweight Seeds) [ Fast &amp; Vast Auto x "Auto" Northern Lights ]
+"Auto" 4:20 (Biohazard Seeds) [ Deimos "Auto" x Mazar ]
+60 Day Lemon "Auto" (DNA Genetics) [ Lemon Skunk x Ruderalis ]
+60 Day Wonder "Auto" (DNA Genetics) [ Williams Wonder x Ruderalis ]
+"Auto" 710 Cheese (710 Genetics) [ UK Skunk x Afghani ]
+"Auto" 710 Diesel (710 Genetics) [ 701 Diesel x Ruderalis ]
+Afghani #1 "Auto" (Sensi Seeds Bank)
+"Auto" Afghan Mass (00 Seeds Bank) [ Critical Mass "Auto" x Génétiques Afghanes ]
+"Auto" Afghan Mass XXL (00 Seeds Bank) [ Sélection d'Auto Afghan Mass ]
+Afghan Storm "Auto" (Greenbud Seeds) [ Hash Plant x Skunk x Ruderalis ]
+AK-47 "Auto" (Amaranta Seeds)
+"Auto" AK 107 (710 Genetics) [ AK-47 x UK Elite Clone ]
+AK-420 "Auto" (Zamnesia Seeds) [ AK-420 x Ruderalis ]
+"Auto" AK (Female Seeds) [ Pure AK x Lowryder ]
+"Auto" AK (Grass-O-Matic) [ AK-47 x Lowryder ]
+"Auto" AK CBD (CBD Seeds)
+"Auto" AK Bio (Biological Seeds) [ AK-47 x Ruderalis ]
+AK Skunk "Auto" (Kalashnikov Seeds) [ Ak-Skunk x Ruderalis ]
+Amarant "Auto" (Amaranta Seeds)
+Amazing "Auto" (Absolute Cannabis Seeds)
+"Auto" Amnesia (Advanced Seeds) [ Original Amnesia x Ruderalis ]
+"Auto" Amnesia CBD (CBD Seeds)
+Amnesia Bilbo "Auto" (Genehtik) [ Amnesia Bilbo x Ruderalis ]
+"Auto" Amnesia Haze (Biological Seeds)
+Amnesia Haze "Auto" (Expert Seeds) [ Amnesia Haze x Ruderalis ]
+Amnesia Haze "Auto" (Zamnesia Seeds) [ Amnesia Haze x Ruderalis ]
+Amnesia Skunk "Auto" (Zamnesia Seeds) [ Amnesia Haze x Skunk x Ruderalis ]
+Amnesia XXL "Auto" (Dinafem) [ Original Amnesia x Original Amnesia "Auto" ]
+Amur Giant "Auto" (Kalashnikov Seeds) [ Jack Here x Power Plant x Amur Ruderalis ]
+Autoblueberry (Expert Seeds) [ Canadian Ruderalis x Blueberry ]
+Auto-Bomb (Green House Seeds) [ Green-O-Matic x Big Bang "Auto" ]
+Autopilote XXL (Ministry of Cannabis) [big Bud XXL x "Auto" ]
+Babushka Black "Auto" (Kalashnikov Seeds) [ Crimea Ruderalis x Pakistan ]
+Baby Boom "Auto" (Kannabia) [ Northern Lights x Blueberry x Ruderalis ]
+Baby Boom "Auto" CBD (Kannabia) [ Blueberry x Northern Lights x Ruderalis ]
+Beast. (Genofarm) [ AK-47 XXL "Auto" x Thunderhaze XL "Auto" ]
+"Auto Berry (G13 labs) [ Blueberry x Canadian Ruderalis ]
+Berry Bomb "Auto" (Bomb Seeds) [ Blueberry x Ruderalis ]
+Berry Ryder "Auto" (Auto Seeds) [ Blueberry x "Auto" #1 ]
+Big Band Max "Auto" (Kannabia)
+Big Bang "Auto" (Green House Seeds) [ Skunk#1 X Northern Light X El Niño X Ruderalis ]
+Big Bomb "Auto" (Bomb Seeds) [ Big Bomb x Ruderalis ]
+Big Bud "Auto" (Sensi Seeds Bank)
+Big Buddha Cheese "Auto" (Big Buddha Seeds) [ Original UK Cheese x Afghane ]
+Big Devil "Auto" (Sweet Seeds)
+Big Devil #2 "Auto" (Sweet Seeds) [ évolution de la Big Devil "Auto" ]
+Big Devil XL (Sweet Seeds) [ Big Devil #2 x Jack Herer "Auto" ]
+"Auto" Bio Diesel Mass (Advanced Seeds) [ Auto Diesel x "Auto" Critical ]
+"Auto" Bio Lime (Biological Seeds) [ Super Lemon Haze x Ruderalis ]
+Birrie Jack "Auto" (Amaranta Seeds)
+BlackBerry "Auto" (Fastbuds) [ BlackBerry Kush x Cream Caramel "Auto" ]
+"Auto" BlackBerry Kush (Dutch Passion) [ Original Blueberry x Haschisch Kush ]
+Black Cream "Auto" (Sweet Seeds) [ Cream Caramel Original x Kush/Pakistanaise ]
+"Auto" Black Diesel (Advanced Seeds) [ NYC Diesel x Black Widow x Ruderalis ]
+"Auto" Black Domina CBD (CBD Seeds)
+Black Haze "Auto" (Exotic Seed) [(Sir Jack x Skunk "Auto") F6 x Pakistan Chitral Kush (F5)]
+Black Jack "Auto" (Sweet Seeds) [ Jack Herer x S.A.D. Sweet Afghani Delicious "Auto" ]
+Black Lemon "Auto" (Exotic Seed) [ Black Haze "Auto" x Skunk "Auto" ]
+Blackout Express "Auto" (Greenbud Seeds) [ Thai x Skunk x C99 x Ruderalis ]
+Bloody Skunk "Auto" (Sweet Seeds) [ Sweet Skunk "Auto" x Red Poison "Auto" ]
+Blow Mind "Auto" (Sweet Seeds) [ Clone élite Amnesia Haze "Cordobesa" x S.A.D. Sweet Afgani Delicious "Auto" ]
+"Auto" Blue (Biological SeedsSeeds) [ Blueberry x White Widow x Super Skunk x Ruderalis ]
+"Auto" Blue Ace CBD (Delicious Seeds) [ Diva x Carmen "Auto" ]
+Blue Acid "Auto" (Kalashnikov Seeds) [ AK-47 x Strawberry x Ruderalis ]
+"Auto" Blue Amnesia (Ministry of Cannabis) [ Amnesia x  Blueberry x Ruderalis ]
+Blue Amnesia "Auto" (Amsterdam Genetics) [ Blue Dream x Amnesia ]
+Blue Amnesia XXL "Auto" (Dinafem) [ Original Amnesia "Auto" x Blueberry "Auto" ]
+Blue "Auto" Mazar (Dutch Passion) [ "Auto" Blueberry x "Auto" Mazar ]
+"Auto" Blueberry (00 Seeds Bank) [ Blueberry x "Auto" Indica ]
+"Auto" Blueberry (Dutch Passion) [ Blueberry x Indica "Auto" ]
+Blueberry "Auto" (Zamnesia Seeds) [ Blueberry x Ruderalis ]
+Blue Cheese "Auto" (Barney's Farm) [ Blue Cheese x Ruderalis ]
+Blue Cheese "Auto" (Expert Seeds) [ Blueberry "Auto" x Cheese "Auto" ]
+Blue Cheese "Auto" (Dinafem) [ Cheese "Auto" x Blueberry "Auto" ]
+Blue Critical "Auto" (Dinafem) [ Critical+ "Auto" x Blueberry "Auto" ]
+"Auto" Blue Diesel (Advanced Seeds) [ "Auto" Biodiesel Mass x "Auto" Blueberry ]
+Blue Dream "Auto" (Humbold Seed organization) [ Blue Dream x Ruderalis ]
+Blue Dream'matic (Fastbuds) [ Blue Dream x Ruderalis ]
+Bluehell "Auto" (Medical Seeds) [ Bluehell x "Auto" Medical Ruderalis ]
+Blue Kush "Auto" (Dinafem) [ OG Kush "Auto" x Blueberry "Auto" ]
+Blue Mammoth "Auto" (Barney's Farm) [ Blueberry Skunk x Lowryder #1 ]
+Blue Pearl "Auto" (Fantaseeds) [ Blue Haze x Silver Pearl ]
+"Auto" Bomb (Bomb Seeds) [ "Auto" Bomb#1 x Haze x Ruderalis ]
+"Auto" Brooklyn Sunrise (Dutch Passion) [ Brooklyn x AK de l'état de New York ]
+Bruce Banner #3 "Auto" (Original Sensible Seeds) [(Ghost OG x Strawberry Diesel) x "Auto" Ghost OG ]
+Bubba Cheese "Auto" (Humboldt Seed organization) [ Bubba Kush x UK Cheese x Ruderalis ]
+Bubba Kush "Auto" (Dinafem) [ Bubba Kush Pre’98 x White Widow "Auto" ]
+Bubba Kush "Auto (Humboldt Seed organization) [ Bubba kush Pre'98 x Ruderalis ]
+"Auto" Bubble (Female Seeds) [ Bubblegum x Ruderalis ]
+"Auto" Bubble Gum (00 Seeds Bank) [ Bubble Gum x Ruderalis ]
+Bubblegum "Auto" (Keria Seeds)
+Buddha White Dwarf "Auto" (Buddha Seeds)
+Budmaker "Auto" (Greenbud Seeds) [ Haze x Shiva Skunk x Northern Lights x Ruderalis ]
+C4 Matic (Fastbuds) [ White Widow x Skunk x Big Bud ]
+Calamity Jane "Auto" (Buddha Seeds) [ Magnum x Génétiques sélectionnées de Brothers Grimm Seeds ]
+"Auto" California Kush (00 Seeds Bank) [ California x Kush Ruderalis ]
+Californian Snow (Fastbuds) [ ancienne variété Californienne x Ruderalis canadienne ]
+Candy Kush "Auto" (Auto Seeds) [ Sélection de Kush californiennes x "Auto" Pounder ]
+Caramel "Auto" (Zamnesia Seeds) [ Sweet Caramel x Ruderalis ]
+Caramella "Auto" (Expert Seeds) [ Cream Caramel "Auto" x Deimos ]
+Caramella "Auto" (Fantaseeds) [ Caramella x Ruderalis ]
+CBD "Auto" Charlotte's Angel (Dutch Passion) [ CBD Charlotte’s Angel x CBD "Auto" Compassion Lime ]
+CBD "Auto" Compassion Lime (Dutch Passion) [ Daiquiri Lime x Compassion ]
+CBD Crack "Auto" (Fastbuds) [ Green Crack x CBD "Auto" ]
+CBD Fix "Auto" (Zamnesia Seeds) [ CBD rich clone x Northern Lights "Auto" ]
+CBD Lemon Portion "Auto" (Barney's Farm) [ (BF) Lemon Kush x ()CBD Crew CBD Enriched x "Auto" ]
+CBD MedGom "Auto" (CBD Crew)
+CBD "Auto" White Widow (Dutch Passion) [ "Auto" White Window x CBD Sweet and Sour Window de chez (CBD Crew) ]
+"Auto" CBG (CannaBioGen) [ Destroyer x Ruderalis ]
+Cheese "Auto" (Expert Seeds) [ Chesse x Lowryder ]
+Cheese "Auto" (Dinafem) [ Critical+ x Cheese "Auto" ]
+Cheese Candy "Auto" (Delicious Seeds)
+"Auto" Cheese Berry (00 Seeds Bank) [ Cheese x Blueberry x Ruderalis ]
+Cheese XXL "Auto" (Dinafem) [ Clone élite Exodus Cheese x Cheese "Auto" ]
+"Auto" Chemdog (Auto Seeds) [ "Auto" #1 x Chemdog Originale ]
+Cherry Bomb "Auto" (Bomb Seeds) [ Cherry Bomb x Ruderalis ]
+Cherry Bud "Auto" (Zamnesia Seeds) [ Blueberry "Auto" x Cheese "Auto" ]
+"Auto" Chingon (Biohazard Seeds) [ "Auto" Somachigun x "Auto" Deimos ]
+"Auto" Chocolate Skunk (00 Seeds Bank) [ Chocolate Skunk x Ruderalis ]
+Chronic Ryder (Joint Doctor Direct "Lowryder Seeds")
+"Auto" Cinderella Jack (Dutch Passion et Buddha Seeds) [ (Cinderella 99 x Jack Herer) x lignée Magnum ]
+"Auto" Colorado Cookies (Dutch Passion) [ "Auto" Blueberry Original x Girl Scout Cookie du Colorado ]
+Cookies "Auto" (Dinafem) [ Girl Scout Cookies x OG Kush "Auto" ]
+Cookies "Auto" (LaMota Seeds) [ Girl Scout Cookies x Girl Scout Cookies "Auto" ]
+Cotton Bud (Zamnesia Seeds) [ White Indica x Ruderalis ]
+Cotton Kush (Genofarm) [ AK-47 XX1 "Auto" x Kush "Auto" ]
+Cream Caramel "Auto" (Sweet Seeds) [ Cream Caramel x Sélection "Auto" ]
+Cream Cookies "Auto" (Fastbuds) [ Lignée Girl Scout Cookies x Ruderalis ]
+Cream Mandarine "Auto" (Sweet Seeds) [ phénotype Cream Caramel "Auto" x clone élite Ice Cool ]
+Cream Mandarine XL "Auto" (Sweet Seeds) [ Cream Mandarine "Auto" x clone élite Super Tai'98 ]
+"Auto" Critical (Biological Seeds) (Zamnesia Seeds)
+Critical + 2.0 "Auto" (Dinafem) [ Critical/Ruderalis x Critical +]
+Critical + "Auto" (Dinafem) [ Critical+ x Roadrunner "Auto" ]
 Critical Ak "Auto" (Expert Seeds) [ "Auto" Critical x Ak-47 "Auto" ]
 Critical Blue "Auto" (Expert Seeds) [ Blueberry "Auto" x Genetic Critical "Auto" ]
 "Auto" Critical CBD (CBD Seeds)
-Critical Cheese "Auto" (Dinafem[21]) [ Critical+ "Auto" x Cheese "Auto" ]
+Critical Cheese "Auto" (Dinafem) [ Critical+ "Auto" x Cheese "Auto" ]
 Critical Cheese "Auto" (Zamnesia Seeds) [ Critical x Cheese x Ruderalis ]
-Critical Herer "Auto" (Ketama seeds[45])
-Critical Jack "Auto" (Dinafem[21]) [ Critical + 2.0 x Haze 2.0 "Auto" ]
-Critical Jack Herer "Auto" (Delicious Seeds[32]) [ Critical Mass "Auto" x Jack Herer "Auto" ]
+Critical Herer "Auto" (Ketama seeds)
+Critical Jack "Auto" (Dinafem) [ Critical + 2.0 x Haze 2.0 "Auto" ]
+Critical Jack Herer "Auto" (Delicious Seeds) [ Critical Mass "Auto" x Jack Herer "Auto" ]
 Critical Kush "Auto" (Barney's Farm) [ Critical Kush x Advanced Autoflowering Strain ]
-Critical Neville Haze "Auto" (Delicious Seeds[32]) [ Critical Mass "Auto" x Neville Haze "Auto" ]
-"Auto" Critical Orange Punch (Dutch Passion[30]) [ Grandaddy Purps x Orange Bud "Désignée Orange Punch" x Kritikal Bilbo ]
+Critical Neville Haze "Auto" (Delicious Seeds) [ Critical Mass "Auto" x Neville Haze "Auto" ]
+"Auto" Critical Orange Punch (Dutch Passion) [ Grandaddy Purps x Orange Bud "Désignée Orange Punch" x Kritikal Bilbo ]
 Critical Rapido "Critical Kush" "Auto" (Barney's Farm) [ Critical Mass x Ruderalis ]
 "Auto" Critical Soma (Advanced Seeds) [ "Auto" Somango x "Auto" Critical +]
 Critical x Ak47 "Auto" (Biological Seeds) [ "Auto" Critical x Ak47 ]
 Crypto "Auto" (LaMota Seeds) [ Haze x OG kush x Diesel x Lemon thai x Ruderalis ]
-Crystal Candy "Auto" (Sweet Seeds[1]) [ Crysal Candy x Sweet Special "Auto" ]
+Crystal Candy "Auto" (Sweet Seeds) [ Crysal Candy x Sweet Special "Auto" ]
 Crystal Meth "Auto" (Fastbuds) [ Mexicaine x Trainwreck x Hawaii x Ruderalis ]
-"Auto" Daiquiri Lime (Dutch Passion[30]) [ Orange Californie x Sour Diesel (USA) ]
-Damnesia "Auto" (Strain Hunters Seeds Bank[46])
+"Auto" Daiquiri Lime (Dutch Passion) [ Orange Californie x Sour Diesel (USA) ]
+Damnesia "Auto" (Strain Hunters Seeds Bank)
 Dark Devil "Auto" (Sweet Seeds) [ Big Devil XL "Auto" x Ruderalis pourpre de la région de Chitral (Hindu Kush Pakistanais)]
-"Auto" Dark Purple (Delicious Seeds[32]) [ OG Kush X Purple Kush "Auto" ]
-Dark Rose "Auto" CBD (Elite Seeds[47]) [ Kush Rose "Auto" CBD x Afghan Rose "Auto" CBD ]
+"Auto" Dark Purple (Delicious Seeds) [ OG Kush X Purple Kush "Auto" ]
+Dark Rose "Auto" CBD (Elite Seeds) [ Kush Rose "Auto" CBD x Afghan Rose "Auto" CBD ]
 Deimos "Auto" (Buddha Seeds) [ Northern Lights x Ruderalis ]
 Delicious Candy "Auto" (Delicious Seeds) [ Cheese "Auto" x Caramelo "Auto" ]
-Devil Cream "Auto" (Sweet Seeds[1]) [ Dark Devil "Auto" x Black Cream "Auto" ]
-"Auto" Desfrán (Dutch Passion[30]) [ Desfrán x "Auto" Daiquiri Lime ]
-Diamond Quenn Kush (KC Brains[48])
+Devil Cream "Auto" (Sweet Seeds) [ Dark Devil "Auto" x Black Cream "Auto" ]
+"Auto" Desfrán (Dutch Passion) [ Desfrán x "Auto" Daiquiri Lime ]
+Diamond Quenn Kush (KC Brains)
 "Auto" Diesel (G13 Labs) [ N.Y.C Diesel x Ruderalis ]
-Diesel "Auto" (Zamnesia Seeds[11]) [ Diesel x Ruderalis ]
+Diesel "Auto" (Zamnesia Seeds) [ Diesel x Ruderalis ]
 Diesel Berry (Auto Seeds) [ Berry Rider x Nyc Diesel ]
 "Auto" Diesel CBD (CBD Seeds)
 Diesel Ryder (Joint Doctor Direct "Lowryder Seeds")
-Dinamed Kush CBD "Auto" (Dinafem[21]) [ Purple Kush x Dinamed CBD "Auto" ]
-Dinamex "Auto" (Dinafem[21]) [ Dinamex x Haze 2.0 "Auto" ]
+Dinamed Kush CBD "Auto" (Dinafem) [ Purple Kush x Dinamed CBD "Auto" ]
+Dinamex "Auto" (Dinafem) [ Dinamex x Haze 2.0 "Auto" ]
 Do Si Dos "Auto" (Fastbuds)
 Do-Si-Dos Cake "Auto" (LaMota Seeds) [ Do-Si-Dos x Cookies "Auto" ]
-Dreamberry (Auto Seeds[2]) [ Blue Dream x Berry Ryder ]
+Dreamberry (Auto Seeds) [ Blue Dream x Berry Ryder ]
 Dr Greenthumb's Dedoverde Haze "Auto" (Humboldt Seed organization) [ Haze "Auto" x Dedoverde ]
-"Auto" Duck (Dutch Passion[30]) [ Frisian Duck x "Auto" White Widow ]
+"Auto" Duck (Dutch Passion) [ Frisian Duck x "Auto" White Widow ]
 "Auto" Durban Poison (Dutch Passion)
-Early Skunk "Auto" (Sensi Seeds Bank[8])
+Early Skunk "Auto" (Sensi Seeds Bank)
 "Auto" Easy Bud (Amaranta Seeds)
 Easy Ryder "Auto" (Joint Doctor Direct "Lowryder Seeds")
 "Auto" El Fuego (DNA Genetics) [ El Fuego x Ruderalis ]
 Elite 47 "Auto" (Elite Seeds) [ Blueberry x Blue Heaven x Ruderalis ]
 Ese T Bilbo "Auto" (Genehtik) [ Sweet Tooth x Ruderalis ]
-"Auto" Euforia (Dutch Passion[30]) [ Original Euforia x Skunk "Auto" ]
-Exodus Cheese (Green House Seeds[22]) [ Exodus Cheese x Ruderalis ]
-Exodus Cheese CBD (Green House Seeds[22]) [ Exodus Cheese x Ruderalis x CBD ]
+"Auto" Euforia (Dutch Passion) [ Original Euforia x Skunk "Auto" ]
+Exodus Cheese (Green House Seeds) [ Exodus Cheese x Ruderalis ]
+Exodus Cheese CBD (Green House Seeds) [ Exodus Cheese x Ruderalis x CBD ]
 Expert Gorilla "Auto" (Expert Seeds) [ Gorilla Glue #4 x ?]
 Explode "Auto" (Greenbud Seeds) [ Mazar-I-Sharif x Skunk #1 x Ruderalis Indica ]
 Extreme Impact "Auto" (Heavyweight Seeds) [ Mazar "Auto" x Fast &amp; Vast "Auto" ]
@@ -796,67 +855,67 @@
 Fastberry (Fastbuds) [ Liguée Bleuberry USA x Ruderalis Canadienne ]
 Fast Bud "Auto" (Sweet Seeds) [ Diesel x ??]
 Fast Bud #2 "Auto" (Sweet Seeds) [ Fast Bud "Auto" améliorée ]
-Fraggle Skunk "Auto" (Philosopher Seeds[49]) [ Super Skunk x LowRyder ]
-"Auto" Frisian Dew (Dutch Passion[30]) [ phénotype Purple Frisian Dew x ? ]
-Fruit "Auto" (dinafem[21]) [ Lowryder#1 x Dinafem#1 x Sweet Deep Grapefruit ]
+Fraggle Skunk "Auto" (Philosopher Seeds) [ Super Skunk x LowRyder ]
+"Auto" Frisian Dew (Dutch Passion) [ phénotype Purple Frisian Dew x ? ]
+Fruit "Auto" (dinafem) [ Lowryder#1 x Dinafem#1 x Sweet Deep Grapefruit ]
 Fruit Punch "Auto" (Heavyweight Seeds) [ Skunk x Haze x Ruderalis ]
 Fully Loaded "Auto" (Heavyweight Seeds) [ Super Skunk "Auto" x Wipeout Express "Auto" ]
-G14 (Fastbuds[29]) [ Lowryder#1 x G13 Hash Plant ]
-Gelato "Auto" (Fastbuds[29])
+G14 (Fastbuds) [ Lowryder#1 x G13 Hash Plant ]
+Gelato "Auto" (Fastbuds)
 GG #4 (Expert Seeds)  [ Sélection de Gorilla Glue "Auto" ]
 "Auto" Gigabud (G13 Labs) [ Hybride Indica x Ruderalis ]
 Ginger Punch "Auto" (Kannabia) [ Ginger-Ale x Ruderalis ]
-Girl Scout Cookies (Auto Seeds[2]) (Zamnesia Seeds)
+Girl Scout Cookies (Auto Seeds) (Zamnesia Seeds)
 Girl Scout Cookies "Auto" (Fastbuds) [ Durban Poison x West Coast OG x Ruderalis ]
 Glueberry "Auto" (Expert Seeds) [ Blueberry x Gorrila Glue #4 ]
-"Auto" Glueberry O.G. (Dutch Passion[30]) [(Gorrila Glue x O.G) x Original "Auto" Blueberry ]
+"Auto" Glueberry O.G. (Dutch Passion) [(Gorrila Glue x O.G) x Original "Auto" Blueberry ]
 Glue Gelato "Auto" (Barney's Farm) [ Gorilla Glue x Gelato x "Auto" ]
-Gnomo "Auto" (Kannabia[24]) [ Blue Monster x Ruderalis ]
+Gnomo "Auto" (Kannabia) [ Blue Monster x Ruderalis ]
 Goliat "Auto" (Elite Seeds) [ Bestial Skunk x Ruderalis ]
-Gorilla "Auto" (Dinafem[21]) [ Gorilla x OG Kush "Auto" ]
+Gorilla "Auto" (Dinafem) [ Gorilla x OG Kush "Auto" ]
 Gorilla Glue (Auto Seeds) [ Gorilla Glue x "Auto" #1 ]
-Gorilla Glue "Auto" (Fastbuds[29]) [ Gorilla Glue x Rudéralis ]
-Gorilla Glue "Auto" (Zamnesia Seeds[11]) [ Gorilla x Cookies x Ruderalis ]
+Gorilla Glue "Auto" (Fastbuds) [ Gorilla Glue x Rudéralis ]
+Gorilla Glue "Auto" (Zamnesia Seeds) [ Gorilla x Cookies x Ruderalis ]
 Goxuak (Genehtik) [ Hybride AK- 47 x "Auto" ]
 "Auto" G Power Cheese (Amaranta Seeds)
-Grapefruit matic (Fastbuds[29]) [ Clone de Grapefruit x Ruderalis ]
-Green Crack "Auto" (Fastbuds[29]) [ Green Crack x Ruderalis ]
+Grapefruit matic (Fastbuds) [ Clone de Grapefruit x Ruderalis ]
+Green Crack "Auto" (Fastbuds) [ Green Crack x Ruderalis ]
 Green Gummy "Auto" (Exotic Seeds) [ Green Gummy x (American Indica x Skunk "Auto")F4 ]
-Green-O-Matic (Green House Seeds[22]) [ Ruderalis x Moroccan x White Dwarf x Lowryder #1 ]
-Green Poison "Auto" (Sweet Seeds[1]) [ Clone élite Green Poison x Big Devil #2 ]
-Green Poison XL "Auto" (Sweet Seeds[1]) [ Green Poison "Auto" améliorée ]
+Green-O-Matic (Green House Seeds) [ Ruderalis x Moroccan x White Dwarf x Lowryder #1 ]
+Green Poison "Auto" (Sweet Seeds) [ Clone élite Green Poison x Big Devil #2 ]
+Green Poison XL "Auto" (Sweet Seeds) [ Green Poison "Auto" améliorée ]
 Guillotine "Auto" (French Touch Seeds) { N.Y.C Diesel x Ruderalis ]
-Haze 2.0 "Auto" (Dinafem[21]) [ Haze "Auto" x Jack Herer ]
-Haze Gom (Grass-O-Matic[13]) [ Super Silver Haze x Lowryder #2 ]
-Haze XXL "Auto" (Dinafem[21]) [ Jack Herer x Haze 2.0 "Auto" ]
+Haze 2.0 "Auto" (Dinafem) [ Haze "Auto" x Jack Herer ]
+Haze Gom (Grass-O-Matic) [ Super Silver Haze x Lowryder #2 ]
+Haze XXL "Auto" (Dinafem) [ Jack Herer x Haze 2.0 "Auto" ]
 "Auto" Heavy Bud (Advanced Seeds) [ Skunk Red Hair x Indica "Auto" ]
 HG Cheese (Fantaseeds)
 HG Cheese  2 (Fantaseeds)
 High Density "Auto" (Heavyweight Seeds) [ Big Bud "Auto" x White Dwarf "Auto" ]
 "Auto" High Priority (710 Genetics) [ High Priority x Ruderalis ]
 Hijack "Auto" (Auto Seeds) [ Jach Herer x Ruderalis x AK-47 ]
-Hindu Kush "Auto" (Sensi Seeds Bank[8])
+Hindu Kush "Auto" (Sensi Seeds Bank)
 Homegrown Lowryder (Fantaseeds) [ Williams Wonder x Northern Lights x Ruderalis ]
 Homegrown Lowryder 2 (Fantaseeds)
 Honey Peach "Auto" CBD (Sweet Seeds) [ "Auto" sélectionnées x CBD ]
 Ice Cool "Auto" (Sweet Seeds) [ clone élite Ice Cool x Fast Bud #2 "Auto" ]
-IL Diavolo (Delicious Seeds[32]) [ Critical Mass x Low Ryder ]
-Jack 47 "Auto" (Sweet Seeds[1]) [ Jack Herer "Auto" x clone élite AK-47 ]
+IL Diavolo (Delicious Seeds) [ Critical Mass x Low Ryder ]
+Jack 47 "Auto" (Sweet Seeds) [ Jack Herer "Auto" x clone élite AK-47 ]
 Jack 47 XL "Auto" (Sweet Seeds) [ Jack 47 "Auto" améliorée ]
 Jack Herer "Auto" (Advanced Seeds)
-Jack Herer "Auto" (Green House Seeds[22]) (Zamnesia Seeds) [ Jack Herer x Ruderalis ]
+Jack Herer "Auto" (Green House Seeds) (Zamnesia Seeds) [ Jack Herer x Ruderalis ]
 Jackpot "Auto" (Heavyweight Seeds) [ Jack Herer x 2 Fast &amp; 2 Vast x Ruderalis ]
 Juicy Lucy (Auto Seeds) [ Cheese x Ruderalis ]
 Jungle Fever "Auto" (Exotic Seed) [ Thai x Russian "Auto" ]
-Kalashnikova "Auto" (Green House Seeds[22]) [ Kalashnikova x Green-O-Matic ]
+Kalashnikova "Auto" (Green House Seeds) [ Kalashnikova x Green-O-Matic ]
 Kannabia Hobbit "Auto" (Kannabia)
 "Auto" Kaya 47 (Advanced Seeds) [ Kaya 47 x Auto ]
-K.C. 48 "Auto" (KC Brains[48]) [ Northern Lights Special x K.C. 45 ]
+K.C. 48 "Auto" (KC Brains) [ Northern Lights Special x K.C. 45 ]
 K.C. 51 "Auto" (KC Brains) [ K.C. 33 x Bahia Black Head ]
 Kickass "Auto" (Kannabia) [ Skunk x Ruderalis ]
 Killer Kush "Auto" (Sweet Seeds) [ OG Kush x Ruderalis ]
-"Auto" King Kong (Dr Underground[50]) [ King Kong x Ruderalis ]
-King's Kush "Auto" (Green House Seeds[22]) [ King's Kush x "Auto" de 3 -ème Génération ]
+"Auto" King Kong (Dr Underground) [ King Kong x Ruderalis ]
+King's Kush "Auto" (Green House Seeds) [ King's Kush x "Auto" de 3 -ème Génération ]
 King's Kush "Auto" CBD (Green House Seeds) [ King's Kush x Ruderalis x CBD ]
 "Auto" KO Haze (Amaranta Seeds)
 "Auto" Kratos (Biohazard Seeds) [ Deimos Auto x ?]
@@ -865,10 +924,10 @@
 "Auto" Kush (Expert Seeds) [ Canadian Ruderalis x Kush ]
 "Auto" Kush (Female Seeds) [ Hindu Kush x Lowrider ]
 Kush Doctor (Auto Seeds) [ OG Kush x Ultra Lemon Haze x Berry Ryder ]
-Kush'N'Cheese "Auto" (Dinafem[21]) [ OG Kush x Cheese "Auto" ]
-La Bella Afrodita (Delicious Seeds[32]) [ IL Diavolo x AK-47 "Auto" ]
+Kush'N'Cheese "Auto" (Dinafem) [ OG Kush x Cheese "Auto" ]
+La Bella Afrodita (Delicious Seeds) [ IL Diavolo x AK-47 "Auto" ]
 La Blanca Max "Auto" (Kannabia) [ Great White Shark x Ruderalis ]
-La Diva (Delicious Seeds[32]) [ Lignée IL Diavolo x Original Blueberry ]
+La Diva (Delicious Seeds) [ Lignée IL Diavolo x Original Blueberry ]
 L.A. Dog (LaMota Seeds) [ influence Diesel x ?]
 "Auto" Lady Bug (Biological Seeds) [ Lady Bug x Ruderalis ]
 La Musa (Delicious Seeds) [ Belladona x Alaska "Auto" ]
@@ -889,13 +948,13 @@
 Lowryder #2 (Joint Doctor Direct "Lowryder Seeds")
 Lowryder 2 "Auto" (Zamnesia Seeds) [ Lowryder x Ruderalis ]
 LSD-25 "Auto" (Fastbuds) [ L.S.D. x Ruderalis ]
-LSD "Auto" (Barney's Farm[34]) [ LSD x Super Magnum "Auto" ]
+LSD "Auto" (Barney's Farm) [ LSD x Super Magnum "Auto" ]
 Magnum "Auto (Buddha Seeds) [ Inconnu ]
-"Auto" Mary (Greenlabel[51])  [ Santa Maria x Ruderalis ]
+"Auto" Mary (Greenlabel)  [ Santa Maria x Ruderalis ]
 Massive Midget "Auto" (Heavyweight Seeds) [ Afghani + Nepalese "Auto" x Hawaiian + Jamaican "Auto" ]
 Master Kush "Auto" (White Label)
 Malana Bomb "Auto" (Barney's Farm) [ Malana Charas Plant x Lowryder #1 ]
-"Auto" Malawi x Northern Lights (Ace Seeds[52])
+"Auto" Malawi x Northern Lights (Ace Seeds)
 Mango Cream "Auto" (Exotic Seed) [ Mango Cream x (Blueberry x New York City Diesel "Auto")]
 "Auto" Mass (Grass-O-Matic) [ Critical Mass x Ruderalis ]
 Mataro Blue Max "Auto" (Kannabia) [ Bleuberry x Black Domina x ?? x Ruderalis ]
@@ -907,42 +966,42 @@
 Med Gom 1.0 (Grass-O-Matic et CBD Crew) [ inconnu ]
 Medikit "Auto" (Buddha Seed) [ Midikit x Ruderalis ]
 "Auto" Melon Gum (Dr Underground) [ Bubble-gum x Lavender x Ruderalis ]
-Mexican Airlines "Auto" (Fastbuds[29]) [ Mexican Sativa x Colombian x Rudéralis ]
+Mexican Airlines "Auto" (Fastbuds) [ Mexican Sativa x Colombian x Rudéralis ]
 Mig-29 (Auto Seeds) [ G 13 Haze x Ruderalis ]
 Mikromachine "Auto" (Kannabia) [ Northern Lights x (AK-47 x Critical) x Ruderalis ]
-Moby Dick "Auto" (Dinafem[21]) [ Haze "Auto" x White Widow "Auto" ]
-Moby Dick XXL "Auto" (Dinafem[21]) [ White Widow XXL "Auto" x Haze XXL "Auto" ]
+Moby Dick "Auto" (Dinafem) [ Haze "Auto" x White Widow "Auto" ]
+Moby Dick XXL "Auto" (Dinafem) [ White Widow XXL "Auto" x Haze XXL "Auto" ]
 Mohan Ram "Auto" (Sweet Seeds) [ White Widow "Auto" x S.A.D Sweet Afghani Delicious "Auto" ]
 Monster Dwarf "Auto" (Zamnesia Seeds) [ Skunk x sélection "Auto" ]
 Monster Mash "Auto" (Exotic Seed) [ Kush x Black Domina x "Auto" Skunk ]
 Moscow Blueberry "Auto" (Kalashnikov Seeds) [ Moscow Blueberry x Ruderalis ]
 Mota CBD Rich "Auto" (LaMota Seeds)
-Mystery Kush "Auto" (Mystery Seeds[53]) [ (Blueberry x OG Kush) x Ruderalis ]
+Mystery Kush "Auto" (Mystery Seeds) [ (Blueberry x OG Kush) x Ruderalis ]
 Nevil Bilbo "Auto" (Genehtik) [ Neville's Haze x Northern Lights "Auto" ]
 New York Diesel "Auto" (Expert Seeds)
 "Auto" Night Queen (Dutch Passion) [ Afghani Night Queen Original x Afghan Mazar-i-Sharif hybride "Auto" ]
 No Name "Auto" (Medical Seeds) [ No Name x "Auto" Medical Ruderalis ]
 "Auto" Northern CBD (CBD Seeds)
-Northern Express (Fastbuds[29]) [ Northern Light x Ruderalis ]
+Northern Express (Fastbuds) [ Northern Light x Ruderalis ]
 Northern Lights 2 "Auto" (Fantaseeds)
 Northern Lights "Auto" (00 Seeds Bank) (Fantaseeds) (Sensi Seeds Bank) (White Label), etc.
-Northern Lights "Auto" (Green House Seeds[22]) [ Northern Light x Green-O-Matic ]
-Northern Lights Blue "Auto" (Delicious Seeds[32]) [ Northern Light Blue "Auto" x Blueberry "Auto" ]
+Northern Lights "Auto" (Green House Seeds) [ Northern Light x Green-O-Matic ]
+Northern Lights Blue "Auto" (Delicious Seeds) [ Northern Light Blue "Auto" x Blueberry "Auto" ]
 Northern Lights x Big Bud "Auto" (Expert Seeds) [ Big Bud x Canadian Ruderalis x Northern Lights ]
 Northern Russian "Auto" (Kalashnikov Seeds) [ Northern Lights x White Russian x Ruderalis ]
 Nyc Diesel "Auto" (Avanced Seeds) [ Sativa Mexicaine x Indica Afghane ]
-Nyc Diesel "Auto" (Barney's Farm[34]) [ NYC Diesel x "Auto" ]
+Nyc Diesel "Auto" (Barney's Farm) [ NYC Diesel x "Auto" ]
 OGesus "Auto" (Expert Seeds) [ OG Kush x White Dwarf ]
 OG Kush "Auto" (Humboldt Seed organization) [ OG Kush x Ruderalis ]
-OG Kush "Auto" (Dinafem[21]) [ OG Kush x Haze 2.0 "Auto" ]
+OG Kush "Auto" (Dinafem) [ OG Kush x Haze 2.0 "Auto" ]
 Ogre (Joint Doctor Direct "Lowryder Seeds")
 Old School Skunk 2.0 "Auto" (LaMota Seeds)
 "Auto" Orange Bud (Dutch Passion) [ mâle "Auto" Daiquiri Lime x Original Orange Bud ]
 "Auto" Orange Bud CBD (CBD Seeds)
-Original Amnesia "Auto" (Dinafem[21]) [ Haze "Auto" x Original Amnesia ]
+Original Amnesia "Auto" (Dinafem) [ Haze "Auto" x Original Amnesia ]
 Original Herer "Auto" (LaMota Seeds)
 Pineapple Express "Auto" (Barney's Farm) [ Pineapple Chunk x Super "Auto" ]
-Pineapple Express "Auto" (Fastbuds[29]) [ Skunk x Trainwreck x Hawaii x Ruderalis ]
+Pineapple Express "Auto" (Fastbuds) [ Skunk x Trainwreck x Hawaii x Ruderalis ]
 Pineapple Express "Auto" (G13 Labs)
 Pineapple Punch (Auto Seeds)
 Polar Express (Auto Seeds) [ Northerm Lights #5 x Kush x Lowryder ]
@@ -962,96 +1021,96 @@
 Purple Haze "Auto (Genofarm) [ ?? ]
 Purple Kush "Auto" (Buddha Seed) [ Indu Kush x purple x Ruderalis ]
 Purple Mazar "Auto" (Kalashnikov Seeds) [ Purple x Mazar x Ruderalis ]
-Purple Punch "Auto" (Barney's Farm[34]) [ Purple Punch x Barney's Farm "Auto" Critical ]
-Purple Punch "Auto" (Fastbuds[29])
+Purple Punch "Auto" (Barney's Farm) [ Purple Punch x Barney's Farm "Auto" Critical ]
+Purple Punch "Auto" (Fastbuds)
 Purple Ryder (Joint Doctor Direct "Lowryder Seeds")
 Purple Stilton (Auto Seeds)
 "Auto" Purps (710 Genetics) [ Purps x Ruderalis ]
 Radical "Auto" (Absolute Cannabis Seeds) [ Chesse x Ruderalis ]
 Red Dwarf "Auto" (Buddha Seeds) [ White Dwarf x Skunk ]
 Red Poison "Auto" (Sweet Seeds) [ Green Poison x Purple Ruderalis ]
-"Auto" Reek's (Devil's Harvest[54]) [OG Reek'N x Rueralis ]
-Rhino Ryder "Auto" (Fastbuds[29]) [ Medicine Man x Ruderalis ]
+"Auto" Reek's (Devil's Harvest) [OG Reek'N x Rueralis ]
+Rhino Ryder "Auto" (Fastbuds) [ Medicine Man x Ruderalis ]
 Russian "Auto" (Exotic Seed) [ (Ak-47 x Skunk "Auto") x (Ak-47 x Skunk "Auto") F6 ]
-S.A.D "Auto" "Sweet Afghani Delicious" (Sweet Seeds[1]) [ Black Domina'98 sélectionnée x "Auto" ]
-Sensi Skunk "Auto" (Sensi Seeds Bank[8])
-Sensi #34 "Auto" CBD (Sensi Seeds Reasearch[55]) [ Sensi "Auto" CBD ]
+S.A.D "Auto" "Sweet Afghani Delicious" (Sweet Seeds) [ Black Domina'98 sélectionnée x "Auto" ]
+Sensi Skunk "Auto" (Sensi Seeds Bank)
+Sensi #34 "Auto" CBD (Sensi Seeds Reasearch) [ Sensi "Auto" CBD ]
 Sensi #41 "Auto" CBD (Sensi Seeds Reasearch) [ Swiss Dream x Skunk #1 "Auto" ]
 Sensi #119 "Auto" (Sensi Seeds Reasearch) [ Blueberry x Skunk #1 "Auto" ]
 Sensi #219 "Auto" (Sensi Seeds Reasearch) [ Kush x Hindu Kush "Auto" ]
-Sfv Kush "Auto" (LaMota Seeds[44]) [ OG Kush x Ruderalis ]
+Sfv Kush "Auto" (LaMota Seeds) [ OG Kush x Ruderalis ]
 "Auto" Shark CBD (CBD Seeds)
 "Auto" Shellshock (710 Genetics) [ Amnesia Haze x Ruderalis ]
 Sir Jack "Auto" (Exotic Seed) [(Sir Jack x Skunk "Auto") F6 ]
 Shiva Skunk "Auto" (Sensi Seeds Bank) [ (Northern Lights #5 xSkunk #1) x Ruderalis ]
 Short &amp; Sweet "Auto" (Heavyweight Seeds) [ AK x White Widow x Ruderalis ]
 Siberian Haze "Auto" (Kalashnikov Seeds) [ Siberian Haze x Ruderalis Russe ]
-Sin Tra Bajo (Barney's Farm[34]) [ Mazari x Lowryder #1 ]
-Six Shooter "Auto" (Fastbuds[29]) [ Chrystal Meth x Mexican Airlines ]
+Sin Tra Bajo (Barney's Farm) [ Mazari x Lowryder #1 ]
+Six Shooter "Auto" (Fastbuds) [ Chrystal Meth x Mexican Airlines ]
 "Auto" Skunk (Biological Seeds) (Strain Hunters)
 Skunk #1 "Auto" (Sensi Seeds Bank) [ Shunk #1 x Ruderalis ]
-Skunk #1 "Auto" (White Label[56])
-"Auto" Skunk 47 (Advanced Seeds[18]) [ Auto Critical Mass x "Auto" Kaya 47 ]
-"Auto" Skunk Mass (Advanced Seeds[18]) [ Critical Mass x Skunk #1 ]
+Skunk #1 "Auto" (White Label)
+"Auto" Skunk 47 (Advanced Seeds) [ Auto Critical Mass x "Auto" Kaya 47 ]
+"Auto" Skunk Mass (Advanced Seeds) [ Critical Mass x Skunk #1 ]
 Skunky Monkey "Auto" (Heavyweight Seeds) [ Skunk x Northern Lights x Ruderalis ]
-Smoothie "Auto" (Fastbuds[29]) [ Somango x Blueberry ]
+Smoothie "Auto" (Fastbuds) [ Somango x Blueberry ]
 Snow Ryder "Auto" (White Label)
 Snowstrom #2 (Dutch Passion) [ Orange Bud Femelle x Skunk Original ]
 Solodiol "Auto" CBD (Elite Seeds) [ Solodiol CBD x Ruderalis ]
 "Auto" Somachigun (Biohazard Seeds) [ Critical+ x AK-47 "Auto" ]
 "Auto" Somango (Advanced Seeds) [ Jack Herer x Big Skunk x Génétique "Auto" ]
 Sour Diesel "Auto" (Humboldt Seed organization) [ Sour Diesel#2 x Ruderalis ]
-Sour Diesel "Auto" (Dinafem[21]) [ Sour Diesel x Haze 2.0 "Auto" ]
+Sour Diesel "Auto" (Dinafem) [ Sour Diesel x Haze 2.0 "Auto" ]
 Space Mango "Auto" (KC Brains)
 "Auto" Speed Bud (Female Seeds) [ Early Misty x Ruderalis ]
-Speed Devil "Auto" (Sweet Seeds[1])
+Speed Devil "Auto" (Sweet Seeds)
 Speed Devil #2 "Auto" (Sweet Seeds) [ Speed Devil "Auto" améliorée ]
-Speedy Boom "Auto" (Kannabia[24]) [ Kaboom x Ruderalis ]
+Speedy Boom "Auto" (Kannabia) [ Kaboom x Ruderalis ]
 Speedy Gonzales "Auto" (Kannabia) [ Ak 47 x ?]
-Stardawg "Auto" (Fastbuds[29]) [ Chemdawg#4 x Tres Dawg x Ruderalis ]
+Stardawg "Auto" (Fastbuds) [ Chemdawg#4 x Tres Dawg x Ruderalis ]
 StarRyder (Dutch Passion et Joint Doctor Direct "Lowryder Seeds") [ Dutch Passion Isis x "Auto" dominance Indica ]
-Sticky Beast "Auto" (Zamnesia Seeds[11]) [ Bubble Gum x OG Kush x Critical "Auto" ]
-Sucker Punch (Auto Seeds[2]) [ Bubba Kush Pre'98 x Candy Kush ]
+Sticky Beast "Auto" (Zamnesia Seeds) [ Bubble Gum x OG Kush x Critical "Auto" ]
+Sucker Punch (Auto Seeds) [ Bubba Kush Pre'98 x Candy Kush ]
 Sugar Black Rose "Auto" (Delicious Seeds) [ Critical Mass "Auto" x Black Domina 98 "Auto" ]
 Sugar Gom (Grass-O-Matic) [ Brasilian Sativa x "Auto" AK ]
 Super Automatic Sativa (Big Buddha Seeds) [ Big Buddha Automatic x Super Silver Haze ]
-Super Bud "Auto" (Green House Seeds[22]) [ Super Bud x Ruderalis ]
-Super Critical "Auto" (Green House Seeds[22]) [ Big Bud x Skunk#1 x White Widow x Ruderalis ]
-Super Lemon Haze "Auto" (Green House Seeds[22]) [ Super Lemon Haze x Ruderalis ]
+Super Bud "Auto" (Green House Seeds) [ Super Bud x Ruderalis ]
+Super Critical "Auto" (Green House Seeds) [ Big Bud x Skunk#1 x White Widow x Ruderalis ]
+Super Lemon Haze "Auto" (Green House Seeds) [ Super Lemon Haze x Ruderalis ]
 Super Lemon Haze x Ruderalis (Biological Seeds)
 Super Skunk "Auto" (Sensi Seeds Bank)
 Super Skunk "Auto" (White Label)
-Sweet CBD "Auto" (Auto Seeds[2]) [ Pure CBD x "Auto" Pounder ]
+Sweet CBD "Auto" (Auto Seeds) [ Pure CBD x "Auto" Pounder ]
 Sweet Cheese "Auto" (Sweet Seeds) [ Fast Bud #2 x clone élite Sweet Cheese ]
 Sweet Cheese XL "Auto" (Sweet Seeds) [ Sweet Cheese améliorée ]
 Sweet Cream "Auto" (Expert Seeds) [ Cream Mandarine "Auto" x Diesel ]
-"Auto" Sweet Critical (00 Seeds Bank[3]) [ Sweet Critical x Ruderalis ]
+"Auto" Sweet Critical (00 Seeds Bank) [ Sweet Critical x Ruderalis ]
 "Auto" Sweet Dwarf (Advanced Seeds)
-Sweet Gelato "Auto" (Sweet Seeds[1]) [ (Sunset Sherbet x Girl Scout Cookies "Thin Mint") x Killer Kush "Auto" ]
-Sweet Mango "Auto" (Green House Seeds[22]) [ Mango x Big Bang "Auto" ]
-Sweet Nurse "Auto" CBD (Sweet Seeds[1])
-Sweet Pure "Auto" CBD (Sweet Seeds[1]) [ Lignée Diesel ]
-Sweet Skunk "Auto" (Sweet Seeds[1]) [ Critical Mass x clone élite Early Skunk ]
-"Auto" Sweet Soma (00 Seeds Bank[3]) [ Indica x Ruderalis ]
-Sweet Special "Auto" (Sweet Seeds[1]) [ clone élite Grapefruit et Hog x Cream Caramel "Auto" ]
-Sweet Tooth "Auto" (Barney's Farm[34]) [ Sweet Tooth x Ruderalis ]
-Sweet Trainwreck "Auto" (Sweet Seeds[1]) [ Clone élite Trainwreck x "Auto" ]
+Sweet Gelato "Auto" (Sweet Seeds) [ (Sunset Sherbet x Girl Scout Cookies "Thin Mint") x Killer Kush "Auto" ]
+Sweet Mango "Auto" (Green House Seeds) [ Mango x Big Bang "Auto" ]
+Sweet Nurse "Auto" CBD (Sweet Seeds)
+Sweet Pure "Auto" CBD (Sweet Seeds) [ Lignée Diesel ]
+Sweet Skunk "Auto" (Sweet Seeds) [ Critical Mass x clone élite Early Skunk ]
+"Auto" Sweet Soma (00 Seeds Bank) [ Indica x Ruderalis ]
+Sweet Special "Auto" (Sweet Seeds) [ clone élite Grapefruit et Hog x Cream Caramel "Auto" ]
+Sweet Tooth "Auto" (Barney's Farm) [ Sweet Tooth x Ruderalis ]
+Sweet Trainwreck "Auto" (Sweet Seeds) [ Clone élite Trainwreck x "Auto" ]
 Syrup "Auto" (Buddha Seeds) [ Sélection Indicas douces ]
-Taiga (Dutch Passion[30]) [ Power Plant x Ruderalis ]
+Taiga (Dutch Passion) [ Power Plant x Ruderalis ]
 Taiga#2 (Dutch Passion) [ Taiga "Auto" x Power Plant ]
-Tangelo Rapido (Barney's Farm[34]) [ Tangerine 13 x Ruderalis ]
+Tangelo Rapido (Barney's Farm) [ Tangerine 13 x Ruderalis ]
 Tangerine Dream "Auto" (Barney's Farm) [ Tangerine Dream x Autoflower #1 ]
-Tangie'matic (Fastbuds[29]) [ Tangie x Ruderalis ]
+Tangie'matic (Fastbuds) [ Tangie x Ruderalis ]
 Thai Fantasy Max "Auto" (Kannabia) [ Thai Fantasy x Ruderalis ]
 Thc Bomb "Auto" (Bomb Seeds) [ THC Bomb x "Auto" Bomb ]
-Think Big (Dutch Passion[30]) [ Think Different x ?]
-Think Different (Dutch Passion[30]) [ AK420 x "Auto" ]
+Think Big (Dutch Passion) [ Think Different x ?]
+Think Different (Dutch Passion) [ AK420 x "Auto" ]
 Thunder Haze "Auto" (Genofarm) [ Thunder Haze x Ruderalis ]
 "Auto" Top 69 (Advanced Seeds)
 Trans Siberian (Auto Seeds) [ White Russian x "Auto" #1 ]
 Triple A ou A.A.A. "Auto" (Exotic Seed) [Amnesia Haze x (Amnesia Haze xBlack Domina "Auto")]
 "Auto" Tugy D Diesel (Amaranta Seeds) [ New York City Diesel x Ruderalis ]
-Tundra #2 (Dutch Passion[30]) [ Passion#1 x ?]
+Tundra #2 (Dutch Passion) [ Passion#1 x ?]
 Turbo Bud "Auto" (Heavyweight Seeds) [ Brazilian "Auto" x Indian "Auto" x Afghani "Auto" ]
 UK Cheese "Auto" (Humboldt Seed organization) [ UK Cheese x Ruderalis ]
 "Auto" Ultimate (Dutch Passion) [ The Ultimate x "Auto" Mazar Original ]
@@ -1060,28 +1119,62 @@
 Waist Deep "Auto" (Heavyweight Seeds) [ Chronic "Auto" x Turbo Bud "Auto" ]
 Walhala (Fantaseeds)
 West Coast O.G. "Auto" (Fastbuds) [ West Coast OG Cut x Ruderalis ]
-White Cheese "Auto" (Dinafem[21]) [ White Widow Auto x Cheese Auto ]
+White Cheese "Auto" (Dinafem) [ White Widow Auto x Cheese Auto ]
 White Diesel Haze (White Label)
 White Dwarf "Auto" (Buddha Seeds) [ 2 puissantes Indica x Ruderalis ]
 White Haze "Auto" (White Label) [ White Haze x Ruderalis ]
-White Russian "Auto" (Serious Seeds[57]) [ White Russian x Lowryder ]
+White Russian "Auto" (Serious Seeds) [ White Russian x Lowryder ]
 White Skunk "Auto" (White Label)
-"Auto" White Widow (00 Seeds Bank[3]) (Biological Seeds) (Dutch Passion) (White Label), etc.
-White Widow "Auto" CBD (Green House Seeds[22]) [ White Widow x Ruderalis x CBD ]
-White Widow "Auto" (Dinafem[21]) [ Critical+ "Auto" x White Widow ]
-White Widow "Auto" CBD (Dinafem[21]) [ White Widow XXL "Auto" x "Auto" CBD ]
-"Auto"  White Widow CBD (CBD Seeds[14])
-"Auto" White Widow x Big Bud (Female Seeds[12]) [ White Widow x Big Bud x Ruderalis ]
-White Widow XXL "Auto" (Dinafem[21])  [ Clone élite White Widow x White Widow "Auto" ]
-White Yoda "Auto" (Philosopher Seeds[49]) [ White Russian x Lowryder ]
-Wipeout Express "Auto" (Heavyweight Seeds[4]) [ Afghani "Auto" x Northern Lights "Auto" x White Widow "Auto" ]
-"Auto" Xtreme (Dutch Passion[30] et Dinafem[21]) [ Outlaw Amnesia x "Auto" ]
-"Auto" Yumbolt CBD (CBD Seeds[14])
-Zkittlez "Auto" (Fastbuds[29]) [ Zkittlez "Auto" x ? ]
-Zkittlez OG "Auto" (Barney's Farm[34]) [ Zkittlez x OG Kush x "Auto" ]
-David 420 Feminized
-Variétés naturelles
-Canadienne
+"Auto" White Widow (00 Seeds Bank) (Biological Seeds) (Dutch Passion) (White Label), etc.
+White Widow "Auto" CBD (Green House Seeds) [ White Widow x Ruderalis x CBD ]
+White Widow "Auto" (Dinafem) [ Critical+ "Auto" x White Widow ]
+White Widow "Auto" CBD (Dinafem) [ White Widow XXL "Auto" x "Auto" CBD ]
+"Auto"  White Widow CBD (CBD Seeds)
+"Auto" White Widow x Big Bud (Female Seeds) [ White Widow x Big Bud x Ruderalis ]
+White Widow XXL "Auto" (Dinafem)  [ Clone élite White Widow x White Widow "Auto" ]
+White Yoda "Auto" (Philosopher Seeds) [ White Russian x Lowryder ]
+Wipeout Express "Auto" (Heavyweight Seeds) [ Afghani "Auto" x Northern Lights "Auto" x White Widow "Auto" ]
+"Auto" Xtreme (Dutch Passion et Dinafem) [ Outlaw Amnesia x "Auto" ]
+"Auto" Yumbolt CBD (CBD Seeds)
+Zkittlez "Auto" (Fastbuds) [ Zkittlez "Auto" x ? ]
+Zkittlez OG "Auto" (Barney's Farm) [ Zkittlez x OG Kush x "Auto" ]
+David 420 Feminized</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ruderalis</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés naturelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Canadienne
 Crimée
 Hongroise (Pannonienne)
 Mongole
@@ -1090,34 +1183,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_lign%C3%A9es_de_cannabis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sativa</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Variétés améliorées
-Apple Pie
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés améliorées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Apple Pie
 Bambata (Tikiseedbank)
 B2B (Beuh de béton) [N-39 x Skunk]
 Big Mother Sativa
@@ -1126,14 +1224,48 @@
 Kali Mist
 Koon Sucker
 Silver Haze
-Super Haze (Dutch Passion[30]) [Haze × Skunk]
+Super Haze (Dutch Passion) [Haze × Skunk]
 Super Silver Haze [(Northern Light × Haze) × (Skunk × Haze)]
 Silver Sage
 PG-13
 Québec Gold (THC haut) [Freezeland × M-39]
-Quebec Big Bud
-Variétés naturelles
-Alsacienne (variété utilisée pour le textile et l'isolation)[58]
+Quebec Big Bud</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sativa</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Variétés naturelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alsacienne (variété utilisée pour le textile et l'isolation)
 Brésilien (Manga Rosa, Santa Maria, Original Green)
 Blaisus
 Burmese.
@@ -1155,42 +1287,79 @@
 Sud-Africain (Durban Poison, Swazi Gold, Swazi Red, Tanzanian Magic, Malawi Gold, Mulanje Gold, Angolese, Lesothan, Nigerian,Congo Pointe Noire, Ciskei, Zambia, Rooibaard, Kwazulu, Kilimandjaro)
 Thaï (Juicy Fruit Thai, Chocolate Thai)
 Vietnamien (Mekong High, Vietnam Black)
-Zamal (île de la Réunion : on compte de nombreuses sortes de Zamal, différentes qualités en créole Réunionnais : poivre, mangue, mangue carotte, sekopié, filament rouge...)[59]</t>
+Zamal (île de la Réunion : on compte de nombreuses sortes de Zamal, différentes qualités en créole Réunionnais : poivre, mangue, mangue carotte, sekopié, filament rouge...)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_lign%C3%A9es_de_cannabis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les hybrides sont créés pour sélectionner certaines caractéristiques des lignées sativa ou indica. En modifiant le ratio sativa/indica, il est possible d'obtenir des hybrides pour un effet psychoactif particulier, un goût ou une croissance accélérée. 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hybrides sont créés pour sélectionner certaines caractéristiques des lignées sativa ou indica. En modifiant le ratio sativa/indica, il est possible d'obtenir des hybrides pour un effet psychoactif particulier, un goût ou une croissance accélérée. 
 Format de la liste : nom de la lignée (cultivateur) [lignée]
-Hybrides &amp; lignées inconnues mixtes (50/50 Sativa-Indica)
-Alaskan thunderfuck
-Ambulance (303 Seeds[60]) [ pére Bio-Diesel x Mére Z 7 de (CBD Crew)]
-Black Dream (Eva Seeds[61]) [ Jamaican Dream x Black Domina ]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hybrides &amp; lignées inconnues mixtes (50/50 Sativa-Indica)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alaskan thunderfuck
+Ambulance (303 Seeds) [ pére Bio-Diesel x Mére Z 7 de (CBD Crew)]
+Black Dream (Eva Seeds) [ Jamaican Dream x Black Domina ]
 Blue Velvet
 Bubblegum (Indiana)
 Blue Haze (Homegrown Fantaseeds) [Blueberry × Haze]
@@ -1203,52 +1372,86 @@
 Ed Rosenthal Super Bud (Sensi Seeds)
 Fruity-Juice (Sensiseeds) [Golden Triangle Thai × Afghani]
 Full Moon
-Galerna (Baskaly[62]) [ Haze x somange ]
+Galerna (Baskaly) [ Haze x somange ]
 Greece Coat
 Himalayan Gold
 Humboldt Select
 Irie (French Touch Seeds) [ Kasper Diesel x Juanita Sativa ]
-Jaffa cake(Cali Kush Farms[63]) [ Animal Cookies x Hasplant x Mandarina ]
+Jaffa cake(Cali Kush Farms) [ Animal Cookies x Hasplant x Mandarina ]
 John Newsom × Skunk
 Kushage
-Lemon Bud (Green Label[51]) [ Skunk x Citral ]
+Lemon Bud (Green Label) [ Skunk x Citral ]
 Northern Lights #2 [Hindu Kush × Northern Lights]
 Northern Lights #5 [ northern lights × thai) × northern lights](75% northern lights\ 25% thai)
-NYC Diesel (Soma Seeds[64]) [Sour Diesel × Afghani Hawaiian]
+NYC Diesel (Soma Seeds) [Sour Diesel × Afghani Hawaiian]
 Pakalolo
-Sweet Pink Grapefruit (Alpine Seeds[65]) [ Sweet Tooth Family ]
-Sweet-purple (Paradise seeds[66])
+Sweet Pink Grapefruit (Alpine Seeds) [ Sweet Tooth Family ]
+Sweet-purple (Paradise seeds)
 Skunk Passion
 Skunk Red Hair
 Sour Romulan
 Silver Pearl (Sensi Seeds) [Early Pearl × Skunk #1 × Northern Lights]
 White Widow (Green House) [Brazilian × South Indian]
-Yumboldt (Sagarmatha) [Afghan × Himalaya]
-Hybrides à dominante indica
-Afghan Hammer (Tikiseedbank) [Mazar × Afghani]
-Aurora Indica (Nirvana[67]) [Afghani × Northern Lights]
+Yumboldt (Sagarmatha) [Afghan × Himalaya]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hybrides à dominante indica</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Afghan Hammer (Tikiseedbank) [Mazar × Afghani]
+Aurora Indica (Nirvana) [Afghani × Northern Lights]
 BC Purple Star (BC Bud) [Purple Star (Holland) × BC Purple Indica]
 Big Bud (Sensi Seeds)
 Black Ghost OG (Original Sensible Seeds) [ Colorado Ghost OG x Black Domina ]
-Black Hog (Platinum Seeds[68]) [ Blackberry Kush x Hindu Kush x Kuztom OG ]
-Blueberry (DJ Short Seeds[69]) [(Oaxacan Gold × Chocolate Thai) × (Highland Thai × Afghani)]
+Black Hog (Platinum Seeds) [ Blackberry Kush x Hindu Kush x Kuztom OG ]
+Blueberry (DJ Short Seeds) [(Oaxacan Gold × Chocolate Thai) × (Highland Thai × Afghani)]
 Blueberry Cookies (Dinafem) [ Blueberry x Girl Scout Cookies ]
 Blueberry F5 (DJ Short Seeds)
 Bubblicious (Nirvana)
 Buddha's Sister (Soma)
-CBD Hammer Shark (CBD Botanic[70]) [ Hammer Shark x CBD Strain ]
+CBD Hammer Shark (CBD Botanic) [ Hammer Shark x CBD Strain ]
 Celtic Stone (Celtic Stone Seeds) [Stonehedge × Dixie Crystal]
-Ceres Kush (Ceres Seeds[71])
-Ceres Skunk (Ceres Seeds[71])
+Ceres Kush (Ceres Seeds)
+Ceres Skunk (Ceres Seeds)
 Columbine (303 Seeds) [ pére Flo (DJ Short) x Northern lights # 5 ]
 Critical Mass (Mr Nice)
 Douce Nuit (French touch Seeds) [ Northern Lights x Hindu Kush ]
 Frencheese (French Touch Seeds) [ Super Skunk x Master Kush ]
-Fruity Thai (Ceres Seeds[71])
+Fruity Thai (Ceres Seeds)
 Hawaiian Indica (Sensi Seeds)
-Hog (TH Seeds[72])
-Holland's Hope (Positronics[73])
-Lavender (Soma's Sacred Seeds[64]) [ Super skunk x Big Skunk Korean x Afghani x Hawaiian ]
+Hog (TH Seeds)
+Holland's Hope (Positronics)
+Lavender (Soma's Sacred Seeds) [ Super skunk x Big Skunk Korean x Afghani x Hawaiian ]
 Lavender x OG Kush (Delicious Seeds) édition limitée 2019
 LSD (Barneys Farm) [Mazar x Skunk #1]
 Masterkush [Hindu Kush × Afghan × Skunk]
@@ -1264,7 +1467,7 @@
 Shiesel (Bonguru) [Shiva Shanti × Diesel]
 Shiva Skunk (Sensi Seeds)
 Snow White (Nirvana)
-Strawberry Blue (World of Seeds[74]) [ New Blue Line x Strawberry ]
+Strawberry Blue (World of Seeds) [ New Blue Line x Strawberry ]
 Sugar Babe (Paradise Seeds)
 Sugar Black Rose x Bubblegum (Delicious Seeds) édition limitée 2019
 Super Skunk (Sensi) [Skunk #1 × Afghani]
@@ -1273,18 +1476,52 @@
 Unknown Kush x Critical Mass (Delicious Seeds) édition limitée 2019
 Unknown Kush x Lavender (Delicious Seeds) édition limitée 2019
 White Rhino (Greenhouse Seeds) [White Widow × Afghani]
-White Indica (Ceres Seeds[71])
-White Smurf (Ceres Seeds[71])
-Zeï (Tikiseedbank) [mazar × shulam]
-Hybrides à dominante sativa
-Ace Silver Haze (Greenlabel[51]) [ Skunk x Northern Lights x Haze ]
+White Indica (Ceres Seeds)
+White Smurf (Ceres Seeds)
+Zeï (Tikiseedbank) [mazar × shulam]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hybrides à dominante sativa</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ace Silver Haze (Greenlabel) [ Skunk x Northern Lights x Haze ]
 AK-47 ou Special-K (Serious Seeds) [Colombian × Mexican × Thai × Afghani] - seconde place à la Cannabis cup, 2003, catégorie indica cup
-Aladin (Dr Underground[50]) [Genio (Cut) x Original Diesel (Daywrecker Cut) AKA Headband] édition limitée 2019
-Amsterdam Mist (Flying Dutchmen[75]) [ Original Haze x Northern Lights ]
-Apollo 11 (Brothers Grimm seeds[76]) [ Genius (phénotype de Jack Herer) x Cinderella 99 male ]
-Banana Split (Crockett Family Farm[77]) [ Tangie x Banana Sherbet ]
+Aladin (Dr Underground) [Genio (Cut) x Original Diesel (Daywrecker Cut) AKA Headband] édition limitée 2019
+Amsterdam Mist (Flying Dutchmen) [ Original Haze x Northern Lights ]
+Apollo 11 (Brothers Grimm seeds) [ Genius (phénotype de Jack Herer) x Cinderella 99 male ]
+Banana Split (Crockett Family Farm) [ Tangie x Banana Sherbet ]
 Bata Skunk ou Bata [Skunk #1 × Saint-Vincent "vinci"] variété développé aux Antilles française, surtout sur l'île de la Guadeloupe.
-Beyond the Brain (Mandala Seeds[78]) [ Columbian Sativa/Haze x Satori P1 ] édition limitée 2019
+Beyond the Brain (Mandala Seeds) [ Columbian Sativa/Haze x Satori P1 ] édition limitée 2019
 Blue Dream [Blueberry x Haze]
 Blue Gelato 41 (Barney's Farm) [Blueberry x Thin Mint Girl Scout Cookies]
 California Orange ou "Cali-O" [Thai × (Afghani × Acapulco Gold)]
@@ -1292,25 +1529,25 @@
 Cinderella 99 ou "C99" (Mr. Soul) [Princess × Princess 88]
 Citrus Skunk [Skunk #1 × California Orange]
 Deedee (French Touch Seeds) [ lignée de Sour Diesel ]
-Early Pearl (Sensi Seeds[8]) [Jamaicain Pearl × Early Girl]
-Early Skunk (Sens Seeds[8]) [Skunk #1 × Early Pearl]
+Early Pearl (Sensi Seeds) [Jamaicain Pearl × Early Girl]
+Early Skunk (Sens Seeds) [Skunk #1 × Early Pearl]
 Euforia (Dutch Passion) [Unknown Skunk × Unknown Skunk]
-FourWay (Sensi Seeds[8])
-Flo (Dj Short[69]) [Purple Thai × Afghani]
+FourWay (Sensi Seeds)
+Flo (Dj Short) [Purple Thai × Afghani]
 Floater [Flo × Jacks Cleaner × Blueberry]
-Gamma Berry (Dark Horse Genetics[79]) [ Bruce Banner 5 x Strawberry Diesel ]
+Gamma Berry (Dark Horse Genetics) [ Bruce Banner 5 x Strawberry Diesel ]
 Girl scout cookies
 Green Devil (tikiseedbank) [Bambata × Shulam]
 Hawaiian Skunk (Seedsman) [Hawaiian Indica × Skunk #1]
 Hempstar (Dutch Passion) [Skunk × Oasis × Haze]
 Hollands Hope
-Jack Herer(Sensi Seeds[8]) [Skunk #1 × Northern Lights #5 × Haze]
+Jack Herer(Sensi Seeds) [Skunk #1 × Northern Lights #5 × Haze]
 Jock Horror
 KIkiriki (French Touch Seeds) [ lignée Jamaican Kiki]
 Lambsbread Skunk (Dutch Passion) [Jamaican Lambsbread × Skunk #1]
 Lemon Skunk (Jordan of the Island) [Citrus Skunk × Skunk #1]
-Lifesaver (BOG[80]) [Jack Cleaner × DJ Short's Blueberry × BogBubble]
-Life Star (BOG[80]) [Lifesaver × Sensi Star]
+Lifesaver (BOG) [Jack Cleaner × DJ Short's Blueberry × BogBubble]
+Life Star (BOG) [Lifesaver × Sensi Star]
 Life Saver Diesel / L.S.D (BOG) [Lifesaver × NYC Diesel]
 Misty (Positronics) [White Widow × Snow White]
 Neon Super Skunk (Subcool) [Super Skunk × Black Russian]
@@ -1318,52 +1555,54 @@
 New York City Diesel "Nyc Diesel"
 Oliginal Super Bull Shit (BS Seeds) F2 Bull × F3 Shit [Super Super Silver Haze × Afgani × Indica × Sativa Super Skunk × Real haze #3.5 × Super Haze × Original Haze + Purple Head × White Widow]
 Orange Crush [AE77 Cali-O × DJ Shorts Blueberry]
-Paranormal cookies (Lost River Seeds[81]) [ Forum Cookies x Ghost Glue ]
-Purple Skunk (Dutch Passion[30]) [Purple #1 × Early Skunk]
+Paranormal cookies (Lost River Seeds) [ Forum Cookies x Ghost Glue ]
+Purple Skunk (Dutch Passion) [Purple #1 × Early Skunk]
 Renaissnace (French Touch Seeds) [  pére KC36 x Juanita La Lagrimosa ]
-Royal Hawaiian (Reeferman Genetics (RMG[82])) [Hawaiian Indica × Hawaiian Sativa]
+Royal Hawaiian (Reeferman Genetics (RMG)) [Hawaiian Indica × Hawaiian Sativa]
 Sativa Afghani Genetic Equilibrium ou SAGE (TH Seeds) [Big Sour Holy × Afghani]
 Sativa Des Rois (French Touch Seeds) [ sélection AK-47 ]
-Shaman (Dutch Passion) [30][Purple #1 × Skunk]
-Shiva Skunk (Sensi Seeds[8]) [Skunk #1 × Northern Lights #5]
+Shaman (Dutch Passion) [Purple #1 × Skunk]
+Shiva Skunk (Sensi Seeds) [Skunk #1 × Northern Lights #5]
 Skunk #1 (Sensi/ Skunky) [Afghani × Mexican × Colombian Gold]
 Skunk #5 (Effettoserra) [(Afghani × Acapulco Gold × Colombian Gold) × Dutch Skunk]
 Skunk Berry (Peak Seeds) [Skunk × Blueberry]
 Skunk Haze (Seedsman) [Skunk #1 × Original Haze]
-Skunk Kush (Sensi Seeds[8]) [Hindu Kush × Skunk #1]
-Strawberry Cough (Dutch Passion[30]) [Strawberry Fields × Haze]
+Skunk Kush (Sensi Seeds) [Hindu Kush × Skunk #1]
+Strawberry Cough (Dutch Passion) [Strawberry Fields × Haze]
 Super Silver Haze (Mr. Nice) [(Northern Lights #5 × N. Haze) × (Skunk #1 × N. Haze)]
 Super Silver Sour Diesel Haze (Reservoir) [Super Silver Haze × Sour Diesel]
 Turtle Power (Amsterdam Marijuana) [Purple Power × Early Girl]
-Ultra Skunk (Dutch Passion[30]) [Swiss Skunk × Skunk]</t>
+Ultra Skunk (Dutch Passion) [Swiss Skunk × Skunk]</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_lign%C3%A9es_de_cannabis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Clones</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clonage permet de reproduire une plante à l'identique. Certaines lignées ne sont transmises que par clonage pour conserver des propriétés strictement identiques au fil du temps. Ces clones se transmettent sous forme de bouture, ce qui rend très difficile leur commercialisation. Ils sont généralement transmis directement de cultivateur à cultivateur.
 35 Day
@@ -1554,31 +1793,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_lign%C3%A9es_de_cannabis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_lignées_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_lign%C3%A9es_de_cannabis</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Variétés non classifiées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amnesia
